--- a/Entradaproductos_LETTAInvierno.xlsx
+++ b/Entradaproductos_LETTAInvierno.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="28800" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1391,12 +1391,12 @@
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1454,16 +1454,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,15 +1477,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1499,16 +1523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,24 +1532,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1546,7 +1554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,17 +1575,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,16 +1584,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1631,25 +1631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,13 +1649,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,7 +1679,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,7 +1727,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,103 +1799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,11 +1890,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1914,21 +1920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1940,6 +1931,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1964,21 +1979,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1992,148 +1992,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2150,10 +2150,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2171,23 +2171,23 @@
     <xf numFmtId="177" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,14 +2205,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2558,7 +2558,7 @@
   <dimension ref="A1:XEX269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A237" sqref="$A237:$XFD240"/>
     </sheetView>
@@ -19455,14 +19455,14 @@
         <v>30</v>
       </c>
       <c r="G16" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="14">
         <v>0</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
